--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\CompanyResearchModels\Software\Internet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\ModelsResearchMetrics\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06160AE3-E269-4066-8B4E-8DC995FA2AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A7E754-B311-4D5C-BA67-7BE3B4B031B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14490" yWindow="75" windowWidth="14235" windowHeight="15495" activeTab="1" xr2:uid="{6CA92B67-FBE4-4980-BCFA-1F1E3970FB7A}"/>
+    <workbookView xWindow="60" yWindow="90" windowWidth="14235" windowHeight="15495" xr2:uid="{6CA92B67-FBE4-4980-BCFA-1F1E3970FB7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -165,9 +165,6 @@
     <t>TTM</t>
   </si>
   <si>
-    <t>ROIC</t>
-  </si>
-  <si>
     <t>Model NI</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>OLTL</t>
   </si>
   <si>
-    <t>Acquisition and intangible assets</t>
-  </si>
-  <si>
     <t>FQ224</t>
   </si>
   <si>
@@ -319,6 +313,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>ROTA</t>
+  </si>
+  <si>
+    <t>Acquisition</t>
   </si>
 </sst>
 </file>
@@ -604,14 +604,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -628,8 +628,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10439400" y="0"/>
-          <a:ext cx="0" cy="16068675"/>
+          <a:off x="11991975" y="0"/>
+          <a:ext cx="0" cy="18497550"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1024,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B4EE37-C3E9-440D-B97D-3EEC1C816773}">
   <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1043,21 +1043,21 @@
         <v>2024</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>370</v>
+        <v>422.66</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="19">
         <v>79970</v>
@@ -1077,16 +1077,16 @@
         <v>1</v>
       </c>
       <c r="K3" s="1">
-        <f>+Model!P29</f>
-        <v>7468</v>
+        <f>+Model!Q29</f>
+        <v>7461</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1">
         <v>48848</v>
@@ -1107,13 +1107,13 @@
       </c>
       <c r="K4" s="1">
         <f>+K2*K3</f>
-        <v>2763160</v>
+        <v>3153466.2600000002</v>
       </c>
       <c r="L4" s="15"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1">
         <v>21507</v>
@@ -1133,16 +1133,16 @@
         <v>3</v>
       </c>
       <c r="K5" s="1">
-        <f>+Model!P44</f>
-        <v>87136</v>
+        <f>+Model!Q44</f>
+        <v>95653</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1">
         <v>15466</v>
@@ -1162,16 +1162,16 @@
         <v>4</v>
       </c>
       <c r="K6" s="1">
-        <f>+Model!P54</f>
-        <v>44970</v>
+        <f>+Model!Q54</f>
+        <v>42881</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1">
         <v>14989</v>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="K7" s="1">
         <f>+K4-K5+K6</f>
-        <v>2720994</v>
+        <v>3100694.2600000002</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1">
         <v>12158</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1">
         <v>7900</v>
@@ -1237,12 +1237,12 @@
       </c>
       <c r="K9" s="10">
         <f>+K7/K8</f>
-        <v>38.854136025474432</v>
+        <v>44.276024332081512</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1">
         <v>5437</v>
@@ -1258,14 +1258,11 @@
         <f t="shared" si="1"/>
         <v>0.19201765679602723</v>
       </c>
-      <c r="K10" s="12">
-        <f>1/39</f>
-        <v>2.564102564102564E-2</v>
-      </c>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11" s="1">
         <v>5521</v>
@@ -1303,7 +1300,7 @@
     </row>
     <row r="13" spans="2:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B13" s="30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C13" s="31">
         <f>+SUM(C3:C12)</f>
@@ -1329,13 +1326,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B895B83C-5A53-45D8-A3E3-99BCDA67225C}">
-  <dimension ref="B1:AO103"/>
+  <dimension ref="B1:AO104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K37" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S51" sqref="S51"/>
+      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1390,56 +1387,58 @@
       <c r="P1" s="14">
         <v>45657</v>
       </c>
-      <c r="Q1" s="14"/>
+      <c r="Q1" s="14">
+        <v>45747</v>
+      </c>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="N2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="T2">
         <v>2014</v>
@@ -1531,7 +1530,7 @@
     </row>
     <row r="3" spans="2:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="3">
         <v>15070</v>
@@ -1578,7 +1577,9 @@
       <c r="P3" s="3">
         <v>23641</v>
       </c>
-      <c r="Q3" s="3"/>
+      <c r="Q3" s="3">
+        <v>24761</v>
+      </c>
       <c r="R3" s="3"/>
       <c r="Y3" s="1">
         <v>32622</v>
@@ -1601,7 +1602,7 @@
     </row>
     <row r="4" spans="2:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3">
         <v>10808</v>
@@ -1648,7 +1649,9 @@
       <c r="P4" s="3">
         <v>21117</v>
       </c>
-      <c r="Q4" s="3"/>
+      <c r="Q4" s="3">
+        <v>21883</v>
+      </c>
       <c r="R4" s="3"/>
       <c r="Y4" s="1">
         <v>31769</v>
@@ -1671,7 +1674,7 @@
     </row>
     <row r="5" spans="2:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="3">
         <v>3593</v>
@@ -1718,7 +1721,9 @@
       <c r="P5" s="3">
         <v>6581</v>
       </c>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="3">
+        <v>5721</v>
+      </c>
       <c r="R5" s="3"/>
       <c r="Y5" s="1">
         <v>11386</v>
@@ -1741,7 +1746,7 @@
     </row>
     <row r="6" spans="2:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1769,7 +1774,9 @@
       <c r="P6" s="3">
         <v>4512</v>
       </c>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="1">
+        <v>4144</v>
+      </c>
       <c r="R6" s="3"/>
       <c r="Y6" s="1">
         <v>20395</v>
@@ -1792,7 +1799,7 @@
     </row>
     <row r="7" spans="2:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="3">
         <v>3136</v>
@@ -1839,7 +1846,9 @@
       <c r="P7" s="3">
         <v>4587</v>
       </c>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="3">
+        <v>4311</v>
+      </c>
       <c r="R7" s="3"/>
       <c r="Y7" s="1">
         <v>6754</v>
@@ -1862,7 +1871,7 @@
     </row>
     <row r="8" spans="2:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" s="3">
         <v>2656</v>
@@ -1909,7 +1918,9 @@
       <c r="P8" s="3">
         <v>3558</v>
       </c>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="3">
+        <v>3504</v>
+      </c>
       <c r="R8" s="3"/>
       <c r="Y8" s="1">
         <v>7628</v>
@@ -1932,7 +1943,7 @@
     </row>
     <row r="9" spans="2:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C9" s="3">
         <v>1791</v>
@@ -1979,7 +1990,9 @@
       <c r="P9" s="3">
         <v>1892</v>
       </c>
-      <c r="Q9" s="3"/>
+      <c r="Q9" s="3">
+        <v>1946</v>
+      </c>
       <c r="R9" s="3"/>
       <c r="Y9" s="1">
         <v>6124</v>
@@ -2002,7 +2015,7 @@
     </row>
     <row r="10" spans="2:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" s="3"/>
       <c r="E10" s="3"/>
@@ -2028,7 +2041,9 @@
       <c r="P10" s="3">
         <v>1913</v>
       </c>
-      <c r="Q10" s="3"/>
+      <c r="Q10" s="3">
+        <v>1929</v>
+      </c>
       <c r="R10" s="3"/>
       <c r="Y10" s="1">
         <v>3070</v>
@@ -2051,7 +2066,7 @@
     </row>
     <row r="11" spans="2:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2079,7 +2094,9 @@
       <c r="P11" s="3">
         <v>1821</v>
       </c>
-      <c r="Q11" s="3"/>
+      <c r="Q11" s="3">
+        <v>1821</v>
+      </c>
       <c r="R11" s="3"/>
       <c r="Y11" s="1">
         <v>6095</v>
@@ -2130,7 +2147,9 @@
       <c r="P12" s="3">
         <v>10</v>
       </c>
-      <c r="Q12" s="3"/>
+      <c r="Q12" s="3">
+        <v>46</v>
+      </c>
       <c r="R12" s="3"/>
       <c r="Y12" s="1">
         <v>0</v>
@@ -2211,6 +2230,9 @@
       <c r="P14" s="3">
         <v>16219</v>
       </c>
+      <c r="Q14" s="3">
+        <v>15319</v>
+      </c>
       <c r="V14" s="1">
         <v>67336</v>
       </c>
@@ -2288,6 +2310,9 @@
       <c r="P15" s="3">
         <v>53413</v>
       </c>
+      <c r="Q15" s="3">
+        <v>54747</v>
+      </c>
       <c r="V15" s="1">
         <v>23818</v>
       </c>
@@ -2378,43 +2403,46 @@
         <f t="shared" si="5"/>
         <v>69632</v>
       </c>
-      <c r="Q16" s="4"/>
+      <c r="Q16" s="4">
+        <f t="shared" ref="Q16" si="6">+Q14+Q15</f>
+        <v>70066</v>
+      </c>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
       <c r="V16" s="4">
-        <f t="shared" ref="V16:AC16" si="6">+V14+V15</f>
+        <f t="shared" ref="V16:AC16" si="7">+V14+V15</f>
         <v>91154</v>
       </c>
       <c r="W16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>96571</v>
       </c>
       <c r="X16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>110360</v>
       </c>
       <c r="Y16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>125843</v>
       </c>
       <c r="Z16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>143015</v>
       </c>
       <c r="AA16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>168088</v>
       </c>
       <c r="AB16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>198270</v>
       </c>
       <c r="AC16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>211915</v>
       </c>
       <c r="AD16" s="4">
-        <f t="shared" ref="AD16" si="7">+AD14+AD15</f>
+        <f t="shared" ref="AD16" si="8">+AD14+AD15</f>
         <v>245122</v>
       </c>
     </row>
@@ -2465,6 +2493,9 @@
       <c r="P17" s="3">
         <v>21799</v>
       </c>
+      <c r="Q17" s="3">
+        <v>21919</v>
+      </c>
       <c r="V17" s="1">
         <v>32780</v>
       </c>
@@ -2500,98 +2531,101 @@
         <v>20</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" ref="C18:N18" si="8">+C16-C17</f>
+        <f t="shared" ref="C18:N18" si="9">+C16-C17</f>
         <v>31671</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>34768</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33745</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35436</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>34670</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35259</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>36729</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>39394</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>40215</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>42397</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43353</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45043</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" ref="O18:P18" si="9">+O16-O17</f>
+        <f t="shared" ref="O18:P18" si="10">+O16-O17</f>
         <v>45486</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>47833</v>
       </c>
-      <c r="Q18" s="4"/>
+      <c r="Q18" s="4">
+        <f t="shared" ref="Q18" si="11">+Q16-Q17</f>
+        <v>48147</v>
+      </c>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="4">
-        <f t="shared" ref="V18:AC18" si="10">+V16-V17</f>
+        <f t="shared" ref="V18:AC18" si="12">+V16-V17</f>
         <v>58374</v>
       </c>
       <c r="W18" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>62310</v>
       </c>
       <c r="X18" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>72007</v>
       </c>
       <c r="Y18" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>82933</v>
       </c>
       <c r="Z18" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>96937</v>
       </c>
       <c r="AA18" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>115856</v>
       </c>
       <c r="AB18" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>135620</v>
       </c>
       <c r="AC18" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>146052</v>
       </c>
       <c r="AD18" s="4">
-        <f t="shared" ref="AD18" si="11">+AD16-AD17</f>
+        <f t="shared" ref="AD18" si="13">+AD16-AD17</f>
         <v>171008</v>
       </c>
     </row>
@@ -2633,7 +2667,7 @@
         <v>7653</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" ref="N19:N21" si="12">+AD19-SUM(K19:M19)</f>
+        <f t="shared" ref="N19:N21" si="14">+AD19-SUM(K19:M19)</f>
         <v>8056</v>
       </c>
       <c r="O19" s="3">
@@ -2641,6 +2675,9 @@
       </c>
       <c r="P19" s="3">
         <v>7917</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>8198</v>
       </c>
       <c r="V19" s="1">
         <v>11988</v>
@@ -2710,7 +2747,7 @@
         <v>6207</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6816</v>
       </c>
       <c r="O20" s="3">
@@ -2718,6 +2755,9 @@
       </c>
       <c r="P20" s="3">
         <v>6440</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>8198</v>
       </c>
       <c r="V20" s="1">
         <v>14635</v>
@@ -2787,7 +2827,7 @@
         <v>1912</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2246</v>
       </c>
       <c r="O21" s="3">
@@ -2795,6 +2835,9 @@
       </c>
       <c r="P21" s="3">
         <v>1823</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>1737</v>
       </c>
       <c r="V21" s="1">
         <v>4563</v>
@@ -2831,95 +2874,99 @@
         <v>13</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" ref="C22:M22" si="13">+SUM(C19:C21)</f>
+        <f t="shared" ref="C22:M22" si="15">+SUM(C19:C21)</f>
         <v>11433</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>12521</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>13381</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>14902</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>13152</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>14860</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>14377</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>15140</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>13320</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>15365</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>15772</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" ref="N22" si="14">+SUM(N19:N21)</f>
+        <f t="shared" ref="N22" si="16">+SUM(N19:N21)</f>
         <v>17118</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" ref="O22:P22" si="15">+SUM(O19:O21)</f>
+        <f t="shared" ref="O22:P22" si="17">+SUM(O19:O21)</f>
         <v>14934</v>
       </c>
       <c r="P22" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>16180</v>
       </c>
+      <c r="Q22" s="3">
+        <f t="shared" ref="Q22" si="18">+SUM(Q19:Q21)</f>
+        <v>18133</v>
+      </c>
       <c r="V22" s="3">
-        <f t="shared" ref="V22:AC22" si="16">+SUM(V19:V21)</f>
+        <f t="shared" ref="V22:AC22" si="19">+SUM(V19:V21)</f>
         <v>31186</v>
       </c>
       <c r="W22" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>32979</v>
       </c>
       <c r="X22" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>36949</v>
       </c>
       <c r="Y22" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>39974</v>
       </c>
       <c r="Z22" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>43978</v>
       </c>
       <c r="AA22" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>45940</v>
       </c>
       <c r="AB22" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>52237</v>
       </c>
       <c r="AC22" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>57529</v>
       </c>
       <c r="AD22" s="3">
-        <f t="shared" ref="AD22" si="17">+SUM(AD19:AD21)</f>
+        <f t="shared" ref="AD22" si="20">+SUM(AD19:AD21)</f>
         <v>61575</v>
       </c>
     </row>
@@ -2928,98 +2975,101 @@
         <v>14</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" ref="C23:M23" si="18">+C18-C22</f>
+        <f t="shared" ref="C23:M23" si="21">+C18-C22</f>
         <v>20238</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>22247</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>20364</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>20534</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>21518</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>20399</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>22352</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>24254</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>26895</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>27032</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>27581</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" ref="N23" si="19">+N18-N22</f>
+        <f t="shared" ref="N23" si="22">+N18-N22</f>
         <v>27925</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" ref="O23:P23" si="20">+O18-O22</f>
+        <f t="shared" ref="O23:P23" si="23">+O18-O22</f>
         <v>30552</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>31653</v>
       </c>
-      <c r="Q23" s="4"/>
+      <c r="Q23" s="4">
+        <f t="shared" ref="Q23" si="24">+Q18-Q22</f>
+        <v>30014</v>
+      </c>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
       <c r="V23" s="4">
-        <f t="shared" ref="V23:AC23" si="21">+V18-V22</f>
+        <f t="shared" ref="V23:AC23" si="25">+V18-V22</f>
         <v>27188</v>
       </c>
       <c r="W23" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>29331</v>
       </c>
       <c r="X23" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>35058</v>
       </c>
       <c r="Y23" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>42959</v>
       </c>
       <c r="Z23" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>52959</v>
       </c>
       <c r="AA23" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>69916</v>
       </c>
       <c r="AB23" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>83383</v>
       </c>
       <c r="AC23" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>88523</v>
       </c>
       <c r="AD23" s="4">
-        <f t="shared" ref="AD23" si="22">+AD18-AD22</f>
+        <f t="shared" ref="AD23" si="26">+AD18-AD22</f>
         <v>109433</v>
       </c>
     </row>
@@ -3061,7 +3111,7 @@
         <v>-854</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" ref="N24:N26" si="23">+AD24-SUM(K24:M24)</f>
+        <f t="shared" ref="N24:N26" si="27">+AD24-SUM(K24:M24)</f>
         <v>-675</v>
       </c>
       <c r="O24" s="3">
@@ -3069,6 +3119,9 @@
       </c>
       <c r="P24" s="3">
         <v>-2288</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>-623</v>
       </c>
       <c r="V24" s="1">
         <v>-439</v>
@@ -3105,95 +3158,99 @@
         <v>15</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" ref="C25:N25" si="24">+C23+C24</f>
+        <f t="shared" ref="C25:N25" si="28">+C23+C24</f>
         <v>20524</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>22515</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>20190</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>20487</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>21572</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>20339</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>22673</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>24727</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>27284</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>26526</v>
       </c>
       <c r="M25" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>26727</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>27250</v>
       </c>
       <c r="O25" s="3">
-        <f t="shared" ref="O25:P25" si="25">+O23+O24</f>
+        <f t="shared" ref="O25:P25" si="29">+O23+O24</f>
         <v>30269</v>
       </c>
       <c r="P25" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>29365</v>
       </c>
+      <c r="Q25" s="3">
+        <f t="shared" ref="Q25" si="30">+Q23+Q24</f>
+        <v>29391</v>
+      </c>
       <c r="V25" s="3">
-        <f t="shared" ref="V25:AC25" si="26">+V23+V24</f>
+        <f t="shared" ref="V25:AC25" si="31">+V23+V24</f>
         <v>26749</v>
       </c>
       <c r="W25" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>30207</v>
       </c>
       <c r="X25" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>36474</v>
       </c>
       <c r="Y25" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>43688</v>
       </c>
       <c r="Z25" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>53036</v>
       </c>
       <c r="AA25" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>71102</v>
       </c>
       <c r="AB25" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>83716</v>
       </c>
       <c r="AC25" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>89311</v>
       </c>
       <c r="AD25" s="3">
-        <f t="shared" ref="AD25" si="27">+AD23+AD24</f>
+        <f t="shared" ref="AD25" si="32">+AD23+AD24</f>
         <v>107787</v>
       </c>
     </row>
@@ -3235,7 +3292,7 @@
         <v>4788</v>
       </c>
       <c r="N26" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5214</v>
       </c>
       <c r="O26" s="3">
@@ -3243,6 +3300,9 @@
       </c>
       <c r="P26" s="3">
         <v>5257</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>5553</v>
       </c>
       <c r="V26" s="1">
         <v>5100</v>
@@ -3279,98 +3339,101 @@
         <v>18</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" ref="C27:N27" si="28">+C25-C26</f>
+        <f t="shared" ref="C27:N27" si="33">+C25-C26</f>
         <v>20505</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>18765</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>16728</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>16740</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>17556</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>16425</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>18299</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>20081</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>22291</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>21870</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>21939</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>22036</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" ref="O27:P27" si="29">+O25-O26</f>
+        <f t="shared" ref="O27:P27" si="34">+O25-O26</f>
         <v>24667</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>24108</v>
       </c>
-      <c r="Q27" s="4"/>
+      <c r="Q27" s="4">
+        <f t="shared" ref="Q27" si="35">+Q25-Q26</f>
+        <v>23838</v>
+      </c>
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
       <c r="V27" s="4">
-        <f t="shared" ref="V27:AC27" si="30">+V25-V26</f>
+        <f t="shared" ref="V27:AC27" si="36">+V25-V26</f>
         <v>21649</v>
       </c>
       <c r="W27" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>25795</v>
       </c>
       <c r="X27" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>16571</v>
       </c>
       <c r="Y27" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>39240</v>
       </c>
       <c r="Z27" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>44281</v>
       </c>
       <c r="AA27" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>61271</v>
       </c>
       <c r="AB27" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>72738</v>
       </c>
       <c r="AC27" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>72361</v>
       </c>
       <c r="AD27" s="4">
-        <f t="shared" ref="AD27" si="31">+AD25-AD26</f>
+        <f t="shared" ref="AD27" si="37">+AD25-AD26</f>
         <v>88136</v>
       </c>
     </row>
@@ -3379,95 +3442,99 @@
         <v>19</v>
       </c>
       <c r="C28" s="7">
-        <f t="shared" ref="C28:N28" si="32">+C27/C29</f>
+        <f t="shared" ref="C28:N28" si="38">+C27/C29</f>
         <v>2.7097925201532971</v>
       </c>
       <c r="D28" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>2.4837855724685638</v>
       </c>
       <c r="E28" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>2.2203344836740113</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>2.2302158273381294</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>2.3454909819639278</v>
       </c>
       <c r="H28" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>2.1979124849458049</v>
       </c>
       <c r="I28" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>2.4516345123258305</v>
       </c>
       <c r="J28" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>2.6892995848399623</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>2.9872688287322435</v>
       </c>
       <c r="L28" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>2.9284949116229244</v>
       </c>
       <c r="M28" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>2.936161670235546</v>
       </c>
       <c r="N28" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>2.9483542948889485</v>
       </c>
       <c r="O28" s="7">
-        <f t="shared" ref="O28:P28" si="33">+O27/O29</f>
+        <f t="shared" ref="O28:P28" si="39">+O27/O29</f>
         <v>3.3021419009370816</v>
       </c>
       <c r="P28" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>3.2281735404392071</v>
       </c>
+      <c r="Q28" s="7">
+        <f t="shared" ref="Q28" si="40">+Q27/Q29</f>
+        <v>3.195014073180539</v>
+      </c>
       <c r="V28" s="7">
-        <f t="shared" ref="V28:AC28" si="34">+V27/V29</f>
+        <f t="shared" ref="V28:AC28" si="41">+V27/V29</f>
         <v>2.7017346811431424</v>
       </c>
       <c r="W28" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>3.2935393258426968</v>
       </c>
       <c r="X28" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>2.126122658455222</v>
       </c>
       <c r="Y28" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>5.0612666064749128</v>
       </c>
       <c r="Z28" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>5.7635038396459715</v>
       </c>
       <c r="AA28" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>8.0534963196635125</v>
       </c>
       <c r="AB28" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>9.6463099263974534</v>
       </c>
       <c r="AC28" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>9.6839640001338285</v>
       </c>
       <c r="AD28" s="7">
-        <f t="shared" ref="AD28" si="35">+AD27/AD29</f>
+        <f t="shared" ref="AD28" si="42">+AD27/AD29</f>
         <v>11.800240996117285</v>
       </c>
     </row>
@@ -3516,6 +3583,9 @@
       </c>
       <c r="P29" s="3">
         <v>7468</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>7461</v>
       </c>
       <c r="V29" s="3">
         <v>8013</v>
@@ -3563,96 +3633,99 @@
         <v>22</v>
       </c>
       <c r="C31" s="6">
-        <f t="shared" ref="C31:M31" si="36">+C18/C16</f>
+        <f t="shared" ref="C31:M31" si="43">+C18/C16</f>
         <v>0.6988768012004325</v>
       </c>
       <c r="D31" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.67213114754098358</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.68365072933549431</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.68323532247180174</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.69171222217788597</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.66845507801391546</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.69487485101311086</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.70109807969531401</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.71155581506449384</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.68360206385037081</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.70084710142584628</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" ref="N31" si="37">+N18/N16</f>
+        <f t="shared" ref="N31" si="44">+N18/N16</f>
         <v>0.69589197707293715</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" ref="O31:P31" si="38">+O18/O16</f>
+        <f t="shared" ref="O31:P31" si="45">+O18/O16</f>
         <v>0.69354273080734929</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>0.68693991268382348</v>
       </c>
-      <c r="Q31" s="3"/>
+      <c r="Q31" s="6">
+        <f t="shared" ref="Q31" si="46">+Q18/Q16</f>
+        <v>0.6871663859789342</v>
+      </c>
       <c r="V31" s="6">
-        <f t="shared" ref="V31:AC31" si="39">+V18/V16</f>
+        <f t="shared" ref="V31:AC31" si="47">+V18/V16</f>
         <v>0.64038879259275516</v>
       </c>
       <c r="W31" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.64522475691460168</v>
       </c>
       <c r="X31" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.65247372236317502</v>
       </c>
       <c r="Y31" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.65901957200638894</v>
       </c>
       <c r="Z31" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.67781001992797962</v>
       </c>
       <c r="AA31" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.68925800771024703</v>
       </c>
       <c r="AB31" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.68401674484289099</v>
       </c>
       <c r="AC31" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.68920085883491022</v>
       </c>
       <c r="AD31" s="6">
-        <f t="shared" ref="AD31" si="40">+AD18/AD16</f>
+        <f t="shared" ref="AD31" si="48">+AD18/AD16</f>
         <v>0.69764443827971379</v>
       </c>
     </row>
@@ -3661,96 +3734,99 @@
         <v>23</v>
       </c>
       <c r="C32" s="6">
-        <f t="shared" ref="C32:M32" si="41">+C23/C16</f>
+        <f t="shared" ref="C32:M32" si="49">+C23/C16</f>
         <v>0.44658737339188381</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0.43007655428394681</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0.41256077795786061</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0.3959124650535043</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0.42931247755476637</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0.3867328947617874</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0.42287681858599618</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0.4316503230169606</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0.47587451563246458</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0.43585940019348596</v>
       </c>
       <c r="M32" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0.44587603866921011</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" ref="N32" si="42">+N23/N16</f>
+        <f t="shared" ref="N32" si="50">+N23/N16</f>
         <v>0.43142737960974553</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" ref="O32:P32" si="43">+O23/O16</f>
+        <f t="shared" ref="O32:P32" si="51">+O23/O16</f>
         <v>0.46583822520393381</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>0.45457548253676472</v>
       </c>
-      <c r="Q32" s="6"/>
+      <c r="Q32" s="6">
+        <f t="shared" ref="Q32" si="52">+Q23/Q16</f>
+        <v>0.42836753917734705</v>
+      </c>
       <c r="V32" s="6">
-        <f t="shared" ref="V32:AC32" si="44">+V23/V16</f>
+        <f t="shared" ref="V32:AC32" si="53">+V23/V16</f>
         <v>0.29826447550299495</v>
       </c>
       <c r="W32" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.30372472067183731</v>
       </c>
       <c r="X32" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.31766944545125048</v>
       </c>
       <c r="Y32" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.3413698020549415</v>
       </c>
       <c r="Z32" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.37030381428521486</v>
       </c>
       <c r="AA32" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.41594878872971303</v>
       </c>
       <c r="AB32" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.4205527815604983</v>
       </c>
       <c r="AC32" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.41772880636104098</v>
       </c>
       <c r="AD32" s="6">
-        <f t="shared" ref="AD32" si="45">+AD23/AD16</f>
+        <f t="shared" ref="AD32" si="54">+AD23/AD16</f>
         <v>0.44644299573273716</v>
       </c>
     </row>
@@ -3759,96 +3835,99 @@
         <v>24</v>
       </c>
       <c r="C33" s="6">
-        <f t="shared" ref="C33:M33" si="46">+C27/C16</f>
+        <f t="shared" ref="C33:M33" si="55">+C27/C16</f>
         <v>0.45247920206545006</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>0.36276291370244357</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>0.33889789303079415</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>0.32276101417140651</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>0.3502653525398029</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>0.31139211708722769</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>0.34619823296819718</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>0.35738311769207498</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>0.39441230072367606</v>
       </c>
       <c r="L33" s="6">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>0.35262818445662691</v>
       </c>
       <c r="M33" s="6">
-        <f t="shared" si="46"/>
+        <f t="shared" si="55"/>
         <v>0.35466714087102719</v>
       </c>
       <c r="N33" s="6">
-        <f t="shared" ref="N33" si="47">+N27/N16</f>
+        <f t="shared" ref="N33" si="56">+N27/N16</f>
         <v>0.34044525468506187</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" ref="O33:P33" si="48">+O27/O16</f>
+        <f t="shared" ref="O33:P33" si="57">+O27/O16</f>
         <v>0.37610734161774795</v>
       </c>
       <c r="P33" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="57"/>
         <v>0.34622012867647056</v>
       </c>
-      <c r="Q33" s="6"/>
+      <c r="Q33" s="6">
+        <f t="shared" ref="Q33" si="58">+Q27/Q16</f>
+        <v>0.34022207632803358</v>
+      </c>
       <c r="V33" s="6">
-        <f t="shared" ref="V33:AC33" si="49">+V27/V16</f>
+        <f t="shared" ref="V33:AC33" si="59">+V27/V16</f>
         <v>0.23749917721657854</v>
       </c>
       <c r="W33" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="59"/>
         <v>0.26710917356142111</v>
       </c>
       <c r="X33" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="59"/>
         <v>0.15015404131931859</v>
       </c>
       <c r="Y33" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="59"/>
         <v>0.31181710544090652</v>
       </c>
       <c r="Z33" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="59"/>
         <v>0.30962486452470023</v>
       </c>
       <c r="AA33" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="59"/>
         <v>0.36451739564989766</v>
       </c>
       <c r="AB33" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="59"/>
         <v>0.36686336813436221</v>
       </c>
       <c r="AC33" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="59"/>
         <v>0.34146237878394642</v>
       </c>
       <c r="AD33" s="6">
-        <f t="shared" ref="AD33" si="50">+AD27/AD16</f>
+        <f t="shared" ref="AD33" si="60">+AD27/AD16</f>
         <v>0.35955972944084985</v>
       </c>
     </row>
@@ -3857,96 +3936,99 @@
         <v>25</v>
       </c>
       <c r="C34" s="6">
-        <f t="shared" ref="C34:M34" si="51">+C26/C25</f>
+        <f t="shared" ref="C34:M34" si="61">+C26/C25</f>
         <v>9.2574546871954783E-4</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="61"/>
         <v>0.16655562958027981</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="61"/>
         <v>0.17147102526002972</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="61"/>
         <v>0.18289647093278666</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="61"/>
         <v>0.18616725384758021</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="61"/>
         <v>0.19243817296818919</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="61"/>
         <v>0.19291668504388479</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="61"/>
         <v>0.18789177821814212</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="61"/>
         <v>0.18300102624248643</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="61"/>
         <v>0.17552589911784663</v>
       </c>
       <c r="M34" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="61"/>
         <v>0.17914468514984846</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" ref="N34" si="52">+N26/N25</f>
+        <f t="shared" ref="N34" si="62">+N26/N25</f>
         <v>0.1913394495412844</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" ref="O34:P34" si="53">+O26/O25</f>
+        <f t="shared" ref="O34:P34" si="63">+O26/O25</f>
         <v>0.18507383791998414</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="63"/>
         <v>0.17902264600715137</v>
       </c>
-      <c r="Q34" s="6"/>
+      <c r="Q34" s="6">
+        <f t="shared" ref="Q34" si="64">+Q26/Q25</f>
+        <v>0.18893538838419924</v>
+      </c>
       <c r="V34" s="6">
-        <f t="shared" ref="V34:AC34" si="54">+V26/V25</f>
+        <f t="shared" ref="V34:AC34" si="65">+V26/V25</f>
         <v>0.19066133313394892</v>
       </c>
       <c r="W34" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>0.14605886052901645</v>
       </c>
       <c r="X34" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>0.5456763722103416</v>
       </c>
       <c r="Y34" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>0.10181285478850027</v>
       </c>
       <c r="Z34" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>0.16507655177615205</v>
       </c>
       <c r="AA34" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>0.13826615285083402</v>
       </c>
       <c r="AB34" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>0.13113383343685794</v>
       </c>
       <c r="AC34" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>0.18978625253328257</v>
       </c>
       <c r="AD34" s="6">
-        <f t="shared" ref="AD34" si="55">+AD26/AD25</f>
+        <f t="shared" ref="AD34" si="66">+AD26/AD25</f>
         <v>0.18231326597827197</v>
       </c>
     </row>
@@ -3966,31 +4048,31 @@
         <v>0.1060308493501334</v>
       </c>
       <c r="H36" s="9">
-        <f t="shared" ref="H36:N36" si="56">+H16/D16-1</f>
+        <f t="shared" ref="H36:N36" si="67">+H16/D16-1</f>
         <v>1.9699195793380753E-2</v>
       </c>
       <c r="I36" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>7.0846839546191198E-2</v>
       </c>
       <c r="J36" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>8.3370288248336921E-2</v>
       </c>
       <c r="K36" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0.12758868361198683</v>
       </c>
       <c r="L36" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0.17580146738203117</v>
       </c>
       <c r="M36" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0.17028964943148495</v>
       </c>
       <c r="N36" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0.15195144957198026</v>
       </c>
       <c r="O36" s="9">
@@ -4001,21 +4083,24 @@
         <f>+P16/K16-1</f>
         <v>0.23205407222605579</v>
       </c>
-      <c r="Q36" s="9"/>
+      <c r="Q36" s="9">
+        <f>+Q16/L16-1</f>
+        <v>0.12973234440503068</v>
+      </c>
       <c r="V36" s="8" t="e">
-        <f t="shared" ref="V36:AD36" si="57">+V16/U16-1</f>
+        <f t="shared" ref="V36:AD36" si="68">+V16/U16-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W36" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>5.9426903920837271E-2</v>
       </c>
       <c r="X36" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>0.14278613662486661</v>
       </c>
       <c r="Y36" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>0.14029539688292858</v>
       </c>
       <c r="Z36" s="8">
@@ -4027,231 +4112,240 @@
         <v>0.17531727441177503</v>
       </c>
       <c r="AB36" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>0.17956070629670173</v>
       </c>
       <c r="AC36" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>6.8820295556564215E-2</v>
       </c>
       <c r="AD36" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>0.1566996201307127</v>
       </c>
     </row>
     <row r="37" spans="2:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6">
-        <f t="shared" ref="G37:O37" si="58">+G3/C3-1</f>
+        <f t="shared" ref="G37:O37" si="69">+G3/C3-1</f>
         <v>0.22017252820172528</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>0.19606885606153091</v>
       </c>
       <c r="I37" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>0.17531400399107877</v>
       </c>
       <c r="J37" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>0.16452810180275712</v>
       </c>
       <c r="K37" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>-1.7728953665434033E-2</v>
       </c>
       <c r="L37" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>1.5310809431468009E-4</v>
       </c>
       <c r="M37" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>0.24004993757802739</v>
       </c>
       <c r="N37" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>0.60428903155306646</v>
       </c>
       <c r="O37" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>0.22660834902004212</v>
       </c>
       <c r="P37" s="6">
         <f>+P3/L3-1</f>
         <v>0.20635811603816911</v>
       </c>
-      <c r="Q37" s="6"/>
+      <c r="Q37" s="6">
+        <f>+Q3/M3-1</f>
+        <v>-2.8592139175257492E-3</v>
+      </c>
       <c r="Z37" s="5">
-        <f t="shared" ref="Z37:AB37" si="59">+Z3/Y3-1</f>
+        <f t="shared" ref="Z37:AB37" si="70">+Z3/Y3-1</f>
         <v>0.26843847710134261</v>
       </c>
       <c r="AA37" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>0.27091036516107203</v>
       </c>
       <c r="AB37" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>0.28068607503470311</v>
       </c>
       <c r="AC37" s="5">
-        <f t="shared" ref="AC37:AD41" si="60">+AC3/AB3-1</f>
+        <f t="shared" ref="AC37:AD41" si="71">+AC3/AB3-1</f>
         <v>0.18737936154417234</v>
       </c>
       <c r="AD37" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>0.22203326247342758</v>
       </c>
     </row>
     <row r="38" spans="2:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6">
-        <f t="shared" ref="G38:O38" si="61">+G4/C4-1</f>
+        <f t="shared" ref="G38:O38" si="72">+G4/C4-1</f>
         <v>6.8467801628423475E-2</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>5.2084259176962133E-2</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>0.11680401289860276</v>
       </c>
       <c r="J38" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>0.10623989103600917</v>
       </c>
       <c r="K38" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>0.56252164877034994</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>0.54777392920503498</v>
       </c>
       <c r="M38" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>0.11573628488931664</v>
       </c>
       <c r="N38" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>-0.64609465178914971</v>
       </c>
       <c r="O38" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>0.13328530259366</v>
       </c>
       <c r="P38" s="6">
         <f>+P4/L4-1</f>
         <v>0.15261175700016372</v>
       </c>
-      <c r="Q38" s="6"/>
+      <c r="Q38" s="6">
+        <f>+Q4/M4-1</f>
+        <v>0.57307166990151681</v>
+      </c>
       <c r="Z38" s="5">
-        <f t="shared" ref="Z38:AB38" si="62">+Z4/Y4-1</f>
+        <f t="shared" ref="Z38:AB38" si="73">+Z4/Y4-1</f>
         <v>0.11164972142654794</v>
       </c>
       <c r="AA38" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>0.12900668252350211</v>
       </c>
       <c r="AB38" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>0.1278591492776886</v>
       </c>
       <c r="AC38" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>8.623526795641534E-2</v>
       </c>
       <c r="AD38" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>0.12338273829020641</v>
       </c>
     </row>
     <row r="39" spans="2:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6">
-        <f t="shared" ref="G39:O39" si="63">+G5/C5-1</f>
+        <f t="shared" ref="G39:O39" si="74">+G5/C5-1</f>
         <v>4.7314222098524539E-3</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>-0.1256890848952591</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>-3.5561497326203173E-2</v>
       </c>
       <c r="J39" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>-0.20281006941540525</v>
       </c>
       <c r="K39" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>8.5595567867035927E-2</v>
       </c>
       <c r="L39" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>0.49453551912568305</v>
       </c>
       <c r="M39" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>0.51122816745217636</v>
       </c>
       <c r="N39" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>-0.47314309693663448</v>
       </c>
       <c r="O39" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>0.43429446287318196</v>
       </c>
       <c r="P39" s="6">
         <f>+P5/L5-1</f>
         <v>-7.4532414568977634E-2</v>
       </c>
-      <c r="Q39" s="6"/>
+      <c r="Q39" s="6">
+        <f>+Q5/M5-1</f>
+        <v>4.9532195927352696E-2</v>
+      </c>
       <c r="Z39" s="5">
-        <f t="shared" ref="Z39:AB39" si="64">+Z5/Y5-1</f>
+        <f t="shared" ref="Z39:AB39" si="75">+Z5/Y5-1</f>
         <v>1.6599332513613119E-2</v>
       </c>
       <c r="AA39" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.32786177105831538</v>
       </c>
       <c r="AB39" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.60910865322055963</v>
       </c>
       <c r="AC39" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>-0.13039786511402229</v>
       </c>
       <c r="AD39" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>-1.8598595806018636E-4</v>
       </c>
     </row>
     <row r="40" spans="2:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -4273,95 +4367,101 @@
         <f>+P6/L6-1</f>
         <v>3.4150813660325463E-2</v>
       </c>
-      <c r="Q40" s="6"/>
+      <c r="Q40" s="6">
+        <f>+Q6/M6-1</f>
+        <v>-0.30106257378984647</v>
+      </c>
       <c r="Z40" s="5">
-        <f t="shared" ref="Z40:AB40" si="65">+Z6/Y6-1</f>
+        <f t="shared" ref="Z40:AB40" si="76">+Z6/Y6-1</f>
         <v>9.3111056631527411E-2</v>
       </c>
       <c r="AA40" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>4.184982506503987E-2</v>
       </c>
       <c r="AB40" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>-0.30124424161536145</v>
       </c>
       <c r="AC40" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>-4.7073321010474456E-2</v>
       </c>
       <c r="AD40" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>0.50290960817276598</v>
       </c>
     </row>
     <row r="41" spans="2:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6">
-        <f t="shared" ref="G41:O41" si="66">+G7/C7-1</f>
+        <f t="shared" ref="G41:O41" si="77">+G7/C7-1</f>
         <v>0.16804846938775508</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>9.7706032285471478E-2</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>6.4591213267384262E-2</v>
       </c>
       <c r="J41" s="6">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>7.4851148284661218E-2</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>6.8250068250068185E-2</v>
       </c>
       <c r="L41" s="6">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>8.2301341589267274E-2</v>
       </c>
       <c r="M41" s="6">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>9.6747745285597153E-2</v>
       </c>
       <c r="N41" s="6">
-        <f t="shared" si="66"/>
+        <f>+N7/J7-1</f>
         <v>0.12134001582695864</v>
       </c>
       <c r="O41" s="6">
-        <f t="shared" si="66"/>
+        <f>+O7/K7-1</f>
         <v>9.685663174035275E-2</v>
       </c>
       <c r="P41" s="6">
         <f>+P7/L7-1</f>
         <v>9.3444576877234731E-2</v>
       </c>
-      <c r="Q41" s="6"/>
+      <c r="Q41" s="6">
+        <f>+Q7/M7-1</f>
+        <v>7.4258659357089529E-2</v>
+      </c>
       <c r="Z41" s="5">
-        <f t="shared" ref="Z41:AB41" si="67">+Z7/Y7-1</f>
+        <f t="shared" ref="Z41:AB41" si="78">+Z7/Y7-1</f>
         <v>0.19588392063962101</v>
       </c>
       <c r="AA41" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>0.27386405843753869</v>
       </c>
       <c r="AB41" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>0.32481290698804544</v>
       </c>
       <c r="AC41" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>9.9625852835448558E-2</v>
       </c>
       <c r="AD41" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>9.2267662952832064E-2</v>
       </c>
     </row>
@@ -4373,32 +4473,36 @@
         <v>26</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" ref="J43:P43" si="68">+J44-J54</f>
+        <f t="shared" ref="J43:P43" si="79">+J44-J54</f>
         <v>73904</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>83872</v>
       </c>
       <c r="L43" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>20165</v>
       </c>
       <c r="M43" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>29386</v>
       </c>
       <c r="N43" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>38513</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>49089</v>
       </c>
       <c r="P43" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>42166</v>
+      </c>
+      <c r="Q43" s="3">
+        <f t="shared" ref="Q43" si="80">+Q44-Q54</f>
+        <v>52772</v>
       </c>
     </row>
     <row r="44" spans="2:30" x14ac:dyDescent="0.2">
@@ -4433,6 +4537,10 @@
         <f>17482+54073+15581</f>
         <v>87136</v>
       </c>
+      <c r="Q44" s="3">
+        <f>28828+50790+16035</f>
+        <v>95653</v>
+      </c>
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
@@ -4459,6 +4567,9 @@
       <c r="P45" s="3">
         <v>48188</v>
       </c>
+      <c r="Q45" s="3">
+        <v>51700</v>
+      </c>
     </row>
     <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
@@ -4485,6 +4596,9 @@
       <c r="P46" s="3">
         <v>909</v>
       </c>
+      <c r="Q46" s="3">
+        <v>848</v>
+      </c>
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
@@ -4511,6 +4625,9 @@
       <c r="P47" s="3">
         <v>26428</v>
       </c>
+      <c r="Q47" s="3">
+        <v>24478</v>
+      </c>
     </row>
     <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
@@ -4537,6 +4654,10 @@
       <c r="P48" s="3">
         <v>166902</v>
       </c>
+      <c r="Q48" s="3">
+        <v>183939</v>
+      </c>
+      <c r="R48" s="1"/>
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
@@ -4563,6 +4684,9 @@
       <c r="P49" s="3">
         <v>22816</v>
       </c>
+      <c r="Q49" s="3">
+        <v>24475</v>
+      </c>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
@@ -4596,6 +4720,10 @@
         <f>119191+25385</f>
         <v>144576</v>
       </c>
+      <c r="Q50" s="3">
+        <f>119329+23968</f>
+        <v>143297</v>
+      </c>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
@@ -4621,6 +4749,9 @@
       </c>
       <c r="P51" s="3">
         <v>36943</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>38234</v>
       </c>
     </row>
     <row r="52" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4635,34 +4766,37 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4">
-        <f t="shared" ref="J52:P52" si="69">+SUM(J44:J51)</f>
+        <f t="shared" ref="J52:P52" si="81">+SUM(J44:J51)</f>
         <v>411976</v>
       </c>
       <c r="K52" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>445785</v>
       </c>
       <c r="L52" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>470558</v>
       </c>
       <c r="M52" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>484275</v>
       </c>
       <c r="N52" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>512163</v>
       </c>
       <c r="O52" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>523013</v>
       </c>
       <c r="P52" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>533898</v>
       </c>
-      <c r="Q52" s="4"/>
+      <c r="Q52" s="4">
+        <f t="shared" ref="Q52" si="82">+SUM(Q44:Q51)</f>
+        <v>562624</v>
+      </c>
       <c r="T52" s="11"/>
       <c r="U52" s="11"/>
       <c r="V52" s="11"/>
@@ -4699,6 +4833,9 @@
       <c r="P53" s="3">
         <v>22608</v>
       </c>
+      <c r="Q53" s="3">
+        <v>26250</v>
+      </c>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
@@ -4732,6 +4869,10 @@
         <f>5248+39722</f>
         <v>44970</v>
       </c>
+      <c r="Q54" s="3">
+        <f>2999+39882</f>
+        <v>42881</v>
+      </c>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
@@ -4758,6 +4899,9 @@
       <c r="P55" s="3">
         <v>9176</v>
       </c>
+      <c r="Q55" s="3">
+        <v>10579</v>
+      </c>
     </row>
     <row r="56" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
@@ -4791,6 +4935,10 @@
         <f>6056+24389</f>
         <v>30445</v>
       </c>
+      <c r="Q56" s="3">
+        <f>6805+25061</f>
+        <v>31866</v>
+      </c>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
@@ -4824,6 +4972,10 @@
         <f>45508+2537</f>
         <v>48045</v>
       </c>
+      <c r="Q57" s="3">
+        <f>44636+2840</f>
+        <v>47476</v>
+      </c>
     </row>
     <row r="58" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
@@ -4850,6 +5002,9 @@
       <c r="P58" s="3">
         <v>20286</v>
       </c>
+      <c r="Q58" s="3">
+        <v>22937</v>
+      </c>
     </row>
     <row r="59" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
@@ -4876,6 +5031,9 @@
       <c r="P59" s="3">
         <v>2513</v>
       </c>
+      <c r="Q59" s="3">
+        <v>2522</v>
+      </c>
     </row>
     <row r="60" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
@@ -4902,6 +5060,9 @@
       <c r="P60" s="3">
         <v>17254</v>
       </c>
+      <c r="Q60" s="3">
+        <v>17686</v>
+      </c>
     </row>
     <row r="61" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
@@ -4927,6 +5088,9 @@
       </c>
       <c r="P61" s="3">
         <v>35906</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>38536</v>
       </c>
     </row>
     <row r="62" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4941,34 +5105,37 @@
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4">
-        <f t="shared" ref="J62:P62" si="70">+SUM(J53:J61)</f>
+        <f t="shared" ref="J62:P62" si="83">+SUM(J53:J61)</f>
         <v>205753</v>
       </c>
       <c r="K62" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>225071</v>
       </c>
       <c r="L62" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>232290</v>
       </c>
       <c r="M62" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>231123</v>
       </c>
       <c r="N62" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>243686</v>
       </c>
       <c r="O62" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>235290</v>
       </c>
       <c r="P62" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>231203</v>
       </c>
-      <c r="Q62" s="4"/>
+      <c r="Q62" s="4">
+        <f t="shared" ref="Q62" si="84">+SUM(Q53:Q61)</f>
+        <v>240733</v>
+      </c>
       <c r="T62" s="11"/>
       <c r="U62" s="11"/>
       <c r="V62" s="11"/>
@@ -5005,38 +5172,45 @@
       <c r="P63" s="3">
         <v>302695</v>
       </c>
+      <c r="Q63" s="3">
+        <v>321891</v>
+      </c>
     </row>
     <row r="64" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>40</v>
       </c>
       <c r="J64" s="3">
-        <f t="shared" ref="J64:P64" si="71">+J63+J62</f>
+        <f t="shared" ref="J64:P64" si="85">+J63+J62</f>
         <v>411976</v>
       </c>
       <c r="K64" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="85"/>
         <v>445785</v>
       </c>
       <c r="L64" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="85"/>
         <v>470558</v>
       </c>
       <c r="M64" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="85"/>
         <v>484275</v>
       </c>
       <c r="N64" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="85"/>
         <v>512163</v>
       </c>
       <c r="O64" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="85"/>
         <v>523013</v>
       </c>
       <c r="P64" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="85"/>
         <v>533898</v>
+      </c>
+      <c r="Q64" s="3">
+        <f t="shared" ref="Q64" si="86">+Q63+Q62</f>
+        <v>562624</v>
       </c>
     </row>
     <row r="66" spans="2:29" x14ac:dyDescent="0.2">
@@ -5044,37 +5218,41 @@
         <v>41</v>
       </c>
       <c r="J66" s="3">
-        <f t="shared" ref="J66:P66" si="72">+SUM(G27:J27)</f>
+        <f t="shared" ref="J66:Q66" si="87">+SUM(G27:J27)</f>
         <v>72361</v>
       </c>
       <c r="K66" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="87"/>
         <v>77096</v>
       </c>
       <c r="L66" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="87"/>
         <v>82541</v>
       </c>
       <c r="M66" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="87"/>
         <v>86181</v>
       </c>
       <c r="N66" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="87"/>
         <v>88136</v>
       </c>
       <c r="O66" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="87"/>
         <v>90512</v>
       </c>
       <c r="P66" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="87"/>
         <v>92750</v>
+      </c>
+      <c r="Q66" s="3">
+        <f t="shared" si="87"/>
+        <v>94649</v>
       </c>
     </row>
     <row r="67" spans="2:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="5" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -5084,34 +5262,37 @@
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6">
-        <f t="shared" ref="J67:P67" si="73">+J66/(J45+J46+J47+J48+J49+J51)</f>
+        <f t="shared" ref="J67:O67" si="88">+J66/(J45+J46+J47+J48+J49+J51)</f>
         <v>0.33879569066826482</v>
       </c>
       <c r="K67" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="88"/>
         <v>0.36072354322824551</v>
       </c>
       <c r="L67" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="88"/>
         <v>0.36306175141963604</v>
       </c>
       <c r="M67" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="88"/>
         <v>0.35692217215558941</v>
       </c>
       <c r="N67" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="88"/>
         <v>0.32025813672089332</v>
       </c>
       <c r="O67" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="88"/>
         <v>0.32019017836296615</v>
       </c>
       <c r="P67" s="6">
         <f>+P66/(P45+P46+P47+P48+P49+P51)</f>
         <v>0.306930168836412</v>
       </c>
-      <c r="Q67" s="6"/>
+      <c r="Q67" s="6">
+        <f>+Q66/(Q45+Q46+Q47+Q48+Q49+Q51)</f>
+        <v>0.29242076904539754</v>
+      </c>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
@@ -5125,7 +5306,7 @@
     </row>
     <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M69" s="3">
         <f>+M27</f>
@@ -5143,10 +5324,14 @@
         <f>+P27</f>
         <v>24108</v>
       </c>
+      <c r="Q69" s="3">
+        <f>+Q27</f>
+        <v>23838</v>
+      </c>
     </row>
     <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M70" s="3">
         <v>21939</v>
@@ -5160,10 +5345,13 @@
       <c r="P70" s="3">
         <v>24108</v>
       </c>
+      <c r="Q70" s="3">
+        <v>25824</v>
+      </c>
     </row>
     <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M71" s="3">
         <v>6027</v>
@@ -5177,10 +5365,13 @@
       <c r="P71" s="3">
         <v>6827</v>
       </c>
+      <c r="Q71" s="3">
+        <v>8740</v>
+      </c>
     </row>
     <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M72" s="3">
         <v>2703</v>
@@ -5194,10 +5385,13 @@
       <c r="P72" s="3">
         <v>3089</v>
       </c>
+      <c r="Q72" s="3">
+        <v>2980</v>
+      </c>
     </row>
     <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M73" s="3">
         <v>49</v>
@@ -5210,6 +5404,9 @@
       </c>
       <c r="P73" s="3">
         <v>976</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>-298</v>
       </c>
     </row>
     <row r="74" spans="2:29" x14ac:dyDescent="0.2">
@@ -5228,6 +5425,9 @@
       <c r="P74" s="3">
         <v>-1158</v>
       </c>
+      <c r="Q74" s="3">
+        <v>-2244</v>
+      </c>
     </row>
     <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
@@ -5242,6 +5442,9 @@
       <c r="P75" s="3">
         <v>-5978</v>
       </c>
+      <c r="Q75" s="3">
+        <v>-2461</v>
+      </c>
     </row>
     <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
@@ -5256,10 +5459,13 @@
       <c r="P76" s="3">
         <v>711</v>
       </c>
+      <c r="Q76" s="3">
+        <v>52</v>
+      </c>
     </row>
     <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N77" s="3">
         <v>-2528</v>
@@ -5270,10 +5476,13 @@
       <c r="P77" s="3">
         <v>-353</v>
       </c>
+      <c r="Q77" s="3">
+        <v>1076</v>
+      </c>
     </row>
     <row r="78" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N78" s="3">
         <v>-1240</v>
@@ -5283,6 +5492,9 @@
       </c>
       <c r="P78" s="3">
         <v>-1089</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>-518</v>
       </c>
     </row>
     <row r="79" spans="2:29" x14ac:dyDescent="0.2">
@@ -5298,6 +5510,9 @@
       <c r="P79" s="3">
         <v>958</v>
       </c>
+      <c r="Q79" s="3">
+        <v>1179</v>
+      </c>
     </row>
     <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
@@ -5312,6 +5527,9 @@
       <c r="P80" s="3">
         <v>-6338</v>
       </c>
+      <c r="Q80" s="3">
+        <v>-1032</v>
+      </c>
     </row>
     <row r="81" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
@@ -5326,10 +5544,13 @@
       <c r="P81" s="3">
         <v>-3395</v>
       </c>
+      <c r="Q81" s="3">
+        <v>1298</v>
+      </c>
     </row>
     <row r="82" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N82" s="3">
         <v>4652</v>
@@ -5340,10 +5561,13 @@
       <c r="P82" s="3">
         <v>3217</v>
       </c>
+      <c r="Q82" s="3">
+        <v>2839</v>
+      </c>
     </row>
     <row r="83" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N83" s="3">
         <v>436</v>
@@ -5354,10 +5578,13 @@
       <c r="P83" s="3">
         <v>716</v>
       </c>
+      <c r="Q83" s="3">
+        <v>-391</v>
+      </c>
     </row>
     <row r="84" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M84" s="3">
         <f>+-2028+260+951-2137+648-645+2622+2803+48</f>
@@ -5375,10 +5602,14 @@
         <f>+SUM(P75:P83)</f>
         <v>-11551</v>
       </c>
+      <c r="Q84" s="3">
+        <f>+SUM(Q75:Q83)</f>
+        <v>2042</v>
+      </c>
     </row>
     <row r="85" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -5406,7 +5637,10 @@
         <f>+P84+SUM(P70:P74)</f>
         <v>22291</v>
       </c>
-      <c r="Q85" s="4"/>
+      <c r="Q85" s="4">
+        <f>+Q84+SUM(Q70:Q74)</f>
+        <v>37044</v>
+      </c>
       <c r="T85" s="11"/>
       <c r="U85" s="11"/>
       <c r="V85" s="11"/>
@@ -5418,9 +5652,15 @@
       <c r="AB85" s="11"/>
       <c r="AC85" s="11"/>
     </row>
+    <row r="86" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+    </row>
     <row r="87" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M87" s="3">
         <v>-10952</v>
@@ -5434,10 +5674,13 @@
       <c r="P87" s="3">
         <v>-15804</v>
       </c>
+      <c r="Q87" s="3">
+        <v>-16745</v>
+      </c>
     </row>
     <row r="88" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="M88" s="3">
         <v>-1575</v>
@@ -5451,10 +5694,13 @@
       <c r="P88" s="3">
         <v>-1405</v>
       </c>
+      <c r="Q88" s="3">
+        <v>-981</v>
+      </c>
     </row>
     <row r="89" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M89" s="3">
         <f>-2183+3350+1941</f>
@@ -5472,6 +5718,10 @@
         <f>-2050+2604+2559</f>
         <v>3113</v>
       </c>
+      <c r="Q89" s="3">
+        <f>-4474+6721+2161</f>
+        <v>4408</v>
+      </c>
     </row>
     <row r="90" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
@@ -5489,10 +5739,13 @@
       <c r="P90" s="3">
         <v>-16</v>
       </c>
+      <c r="Q90" s="3">
+        <v>604</v>
+      </c>
     </row>
     <row r="91" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M91" s="3">
         <f>+SUM(M87:M90)</f>
@@ -5510,10 +5763,14 @@
         <f>+SUM(P87:P90)</f>
         <v>-14112</v>
       </c>
+      <c r="Q91" s="3">
+        <f>+SUM(Q87:Q90)</f>
+        <v>-12714</v>
+      </c>
     </row>
     <row r="93" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M93" s="3">
         <v>-3810</v>
@@ -5525,6 +5782,9 @@
         <v>-5746</v>
       </c>
       <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5546,10 +5806,13 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
+      <c r="Q94" s="3">
+        <v>-2250</v>
+      </c>
     </row>
     <row r="95" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M95" s="3">
         <v>522</v>
@@ -5563,10 +5826,13 @@
       <c r="P95" s="3">
         <v>256</v>
       </c>
+      <c r="Q95" s="3">
+        <v>546</v>
+      </c>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M96" s="3">
         <v>-4213</v>
@@ -5580,10 +5846,13 @@
       <c r="P96" s="3">
         <v>-4986</v>
       </c>
-    </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-4781</v>
+      </c>
+    </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M97" s="3">
         <v>-5572</v>
@@ -5597,8 +5866,11 @@
       <c r="P97" s="3">
         <v>-6170</v>
       </c>
-    </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>-6169</v>
+      </c>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>29</v>
       </c>
@@ -5614,10 +5886,13 @@
       <c r="P98" s="3">
         <v>-343</v>
       </c>
-    </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>-382</v>
+      </c>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M99" s="3">
         <f>+SUM(M93:M98)</f>
@@ -5635,10 +5910,14 @@
         <f>+SUM(P93:P98)</f>
         <v>-11243</v>
       </c>
-    </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <f>+SUM(Q93:Q98)</f>
+        <v>-13036</v>
+      </c>
+    </row>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M100" s="3">
         <v>-80</v>
@@ -5652,10 +5931,13 @@
       <c r="P100" s="3">
         <v>-294</v>
       </c>
-    </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M101" s="3">
         <f>+M85+M99+M91+M100</f>
@@ -5673,10 +5955,14 @@
         <f>+P85+P99+P91+P100</f>
         <v>-3358</v>
       </c>
-    </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <f>+Q85+Q99+Q91+Q100</f>
+        <v>11346</v>
+      </c>
+    </row>
+    <row r="103" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M103" s="3">
         <f>+M85+M87</f>
@@ -5693,6 +5979,20 @@
       <c r="P103" s="3">
         <f>+P85+P87</f>
         <v>6487</v>
+      </c>
+      <c r="Q103" s="3">
+        <f>+Q85+Q87</f>
+        <v>20299</v>
+      </c>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P104" s="3">
+        <f>+SUM(M103:P103)</f>
+        <v>70031</v>
+      </c>
+      <c r="Q104" s="3">
+        <f>+SUM(N103:Q103)</f>
+        <v>69365</v>
       </c>
     </row>
   </sheetData>
